--- a/results/experiments/exp2/220607_res_speed_excel.xlsx
+++ b/results/experiments/exp2/220607_res_speed_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\yolov5\results\experiments\exp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD3352E-2558-4DD4-B838-ACEFD2D7F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6241F00A-9B51-4F10-9148-F063EB3A54D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -653,25 +653,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -714,6 +696,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -826,6 +811,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -938,6 +926,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1050,6 +1041,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1162,6 +1156,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1453,6 +1450,57 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21317528115535406"/>
+                  <c:y val="-1.4762724297483354E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'p6'!$A$5:$A$11</c:f>
@@ -2877,6 +2925,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2989,6 +3040,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3101,6 +3155,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3213,6 +3270,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6357,7 +6417,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCEF36F9-E0A6-4022-80E7-44FBC0FA0E1C}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCEF36F9-E0A6-4022-80E7-44FBC0FA0E1C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -6449,7 +6509,7 @@
     <dataField name="Average of FPS" fld="8" subtotal="average" baseField="2" baseItem="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0" selected="0"/>
@@ -6593,7 +6653,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85F6029B-0478-4CB4-B1ED-D0E99AA03596}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85F6029B-0478-4CB4-B1ED-D0E99AA03596}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -6685,7 +6745,7 @@
     <dataField name="Average of FPS" fld="8" subtotal="average" baseField="2" baseItem="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0" selected="0"/>
@@ -9244,10 +9304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5820754A-EDF6-46B7-BB39-7BB5E8540509}">
-  <dimension ref="A3:G11"/>
+  <dimension ref="A3:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9455,6 +9515,24 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f>384-256</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f>384-64</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f>256+32</f>
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -9463,10 +9541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2416BD7-39D5-4072-9010-9F87C972A416}">
-  <dimension ref="A3:M37"/>
+  <dimension ref="A3:N37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9674,22 +9752,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35">
-        <f>512-384</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36">
-        <f>M35/2</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37">
-        <f>512-64</f>
-        <v>448</v>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <f>640-80</f>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
